--- a/results_exact/8_transbordo_porto.xlsx
+++ b/results_exact/8_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="D2" t="n">
-        <v>170376.1279999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,11 +485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>438120.5784080541</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>899779.9840000002</v>
       </c>
     </row>
     <row r="4">
@@ -514,45 +514,45 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>729132.0559999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2048470.026800651</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>317330.7931993486</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27279.52559194528</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2803924.734408055</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>169768.8000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52454.58519934921</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242300.9268006508</v>
+        <v>736888.78</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.698</v>
       </c>
       <c r="C2" t="n">
-        <v>29067871.19807998</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772</v>
+        <v>48635765.40907808</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>98687868.64512002</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86030291.28743999</v>
       </c>
     </row>
     <row r="5">
@@ -684,24 +684,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>239527600.2338001</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>54139806.62774087</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>3841775.589113654</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>263064218.5821637</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19851065.78400001</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8949276.78086097</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>41338961.12145904</v>
+        <v>60159599.9992</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190081</v>
       </c>
       <c r="C2" t="n">
-        <v>4621248020.646397</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>12075632724.28523</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24405452330.0192</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>21777278769.3744</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,24 +823,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>44832302889.05235</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>13369901564.77637</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1020489679.444612</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61365995756.07108</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3817242979.560002</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1657447918.57444</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9190982985.494967</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1304733769.006291</v>
+        <v>1176716706.325242</v>
       </c>
       <c r="B2" t="n">
-        <v>173991749520206.6</v>
+        <v>156488814287566.9</v>
       </c>
     </row>
   </sheetData>
